--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_36_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_36_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -7569,7 +7569,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>

--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_36_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_36_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.98988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.48988764044944"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="25.08988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="82.28988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,197 +1397,255 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:56</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>36671</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>UETU5114749</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2018-09-18T11:17:47.346</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>36671</v>
+        <v>37028</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>UETU5114749</t>
+          <t>CBHU2681380</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1709,24 +1668,32 @@
           <t>SAPL-W</t>
         </is>
       </c>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>MV.THORSWIND</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>2018/1879</t>
+        </is>
+      </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="d">
-        <v>2018-09-18T11:17:47.346</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="N8" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="d">
+        <v>2018-06-29T00:00:00</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -1739,13 +1706,39 @@
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="U8" s="0" t="n">
+        <v>1445864</v>
+      </c>
+      <c r="V8" s="0" t="inlineStr">
+        <is>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+        </is>
+      </c>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>POWER CABLE &amp; PLUG OK.</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -1799,15 +1792,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L9" s="0" t="d">
+      <c r="L9" s="4" t="d">
         <v>2018-06-29T00:00:00</v>
       </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N9" s="0"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
         <v>152</v>
       </c>
@@ -1827,17 +1820,17 @@
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W9" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>POWER CABLE &amp; PLUG OK.</t>
+          <t>FRONT PANEL AIR PLATE SCROW MISSING 04 PCS &amp; AIR PLATE BENT 18".</t>
         </is>
       </c>
       <c r="Y9" s="0" t="inlineStr">
@@ -1908,15 +1901,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L10" s="0" t="d">
+      <c r="L10" s="4" t="d">
         <v>2018-06-29T00:00:00</v>
       </c>
-      <c r="M10" s="0" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N10" s="0"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
         <v>152</v>
       </c>
@@ -1936,17 +1929,17 @@
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W10" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>FRONT PANEL AIR PLATE SCROW MISSING 04 PCS &amp; AIR PLATE BENT 18".</t>
+          <t>RF FLOOR  DIRTY BY DUST.</t>
         </is>
       </c>
       <c r="Y10" s="0" t="inlineStr">
@@ -1967,19 +1960,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>37028</v>
+        <v>37263</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>CBHU2681380</t>
+          <t>CCLU7101334</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -2004,12 +1997,12 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>MV.THORSWIND</t>
+          <t/>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>2018/1879</t>
+          <t/>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -2017,17 +2010,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L11" s="0" t="d">
-        <v>2018-06-29T00:00:00</v>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N11" s="0"/>
+      <c r="L11" s="4" t="d">
+        <v>2018-08-11T00:00:00</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -2041,21 +2034,21 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="n">
-        <v>1445864</v>
+        <v>1466124</v>
       </c>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W11" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>RF FLOOR  DIRTY BY DUST.</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2126,15 +2119,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
+      <c r="L12" s="4" t="d">
         <v>2018-08-11T00:00:00</v>
       </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N12" s="0"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
         <v>109</v>
       </c>
@@ -2154,17 +2147,17 @@
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>F/B BROKEN DOWN 18'X18' &amp; PUTTING MISSING WITH LIGHT PASSING 24'.</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2235,15 +2228,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
+      <c r="L13" s="4" t="d">
         <v>2018-08-11T00:00:00</v>
       </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N13" s="0"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
         <v>109</v>
       </c>
@@ -2273,7 +2266,7 @@
       </c>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>F/B BROKEN DOWN 18'X18' &amp; PUTTING MISSING WITH LIGHT PASSING 24'.</t>
+          <t>F/B DIRTY BY WASTES PAER DUST &amp; ODOUR.</t>
         </is>
       </c>
       <c r="Y13" s="0" t="inlineStr">
@@ -2294,19 +2287,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>37263</v>
+        <v>37289</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>CCLU7101334</t>
+          <t>SEGU1921565</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -2321,22 +2314,22 @@
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>OEL MALAYSIA</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2275</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -2344,17 +2337,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L14" s="0" t="d">
-        <v>2018-08-11T00:00:00</v>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N14" s="0"/>
+      <c r="L14" s="4" t="d">
+        <v>2018-08-15T00:00:00</v>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -2368,21 +2361,21 @@
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0" t="n">
-        <v>1466124</v>
+        <v>1468011</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY WASTES PAER DUST &amp; ODOUR.</t>
+          <t>RIGHT DOOR FRAME INNER CUT 04'</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2453,15 +2446,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L15" s="0" t="d">
+      <c r="L15" s="4" t="d">
         <v>2018-08-15T00:00:00</v>
       </c>
-      <c r="M15" s="0" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N15" s="0"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
         <v>105</v>
       </c>
@@ -2491,7 +2484,7 @@
       </c>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR FRAME INNER CUT 04'</t>
+          <t>BOTH DOOR LOCK BAR  BENT 02 PEC</t>
         </is>
       </c>
       <c r="Y15" s="0" t="inlineStr">
@@ -2562,15 +2555,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L16" s="0" t="d">
+      <c r="L16" s="4" t="d">
         <v>2018-08-15T00:00:00</v>
       </c>
-      <c r="M16" s="0" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N16" s="0"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
         <v>105</v>
       </c>
@@ -2590,17 +2583,17 @@
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W16" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>BOTH DOOR LOCK BAR  BENT 02 PEC</t>
+          <t>L/SIDE PANEL CUT 16'+02'</t>
         </is>
       </c>
       <c r="Y16" s="0" t="inlineStr">
@@ -2671,15 +2664,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L17" s="0" t="d">
+      <c r="L17" s="4" t="d">
         <v>2018-08-15T00:00:00</v>
       </c>
-      <c r="M17" s="0" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N17" s="0"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
         <v>105</v>
       </c>
@@ -2699,17 +2692,17 @@
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W17" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>L/SIDE PANEL CUT 16'+02'</t>
+          <t>FLOOR BOARD DIRTY BY SCRAP DUST</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2730,19 +2723,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>37289</v>
+        <v>37345</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>SEGU1921565</t>
+          <t>BSIU9564293</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -2757,22 +2750,22 @@
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>OEL MALAYSIA</t>
+          <t/>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>2018/2275</t>
+          <t/>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -2780,17 +2773,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L18" s="0" t="d">
-        <v>2018-08-15T00:00:00</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N18" s="0"/>
+      <c r="L18" s="4" t="d">
+        <v>2018-08-19T00:00:00</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
@@ -2804,21 +2797,21 @@
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0" t="n">
-        <v>1468011</v>
+        <v>1469906</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SCRAP DUST</t>
+          <t>INTERNAL PANEL DIRTY &amp; WAIR FITTING AT 06 PLS </t>
         </is>
       </c>
       <c r="Y18" s="0" t="inlineStr">
@@ -2889,15 +2882,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L19" s="0" t="d">
+      <c r="L19" s="4" t="d">
         <v>2018-08-19T00:00:00</v>
       </c>
-      <c r="M19" s="0" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N19" s="0"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
         <v>101</v>
       </c>
@@ -2917,17 +2910,17 @@
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY &amp; WAIR FITTING AT 06 PLS </t>
+          <t>F/B DIRTY BY DUST .</t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -2948,11 +2941,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>37345</v>
+        <v>37352</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSIU9564293</t>
+          <t>CBHU8864367</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -2998,15 +2991,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L20" s="0" t="d">
+      <c r="L20" s="4" t="d">
         <v>2018-08-19T00:00:00</v>
       </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N20" s="0"/>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
         <v>101</v>
       </c>
@@ -3022,21 +3015,21 @@
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0" t="n">
-        <v>1469906</v>
+        <v>1470102</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY DUST .</t>
+          <t>INTERNAL PANEL DIRTY &amp; TAR FITTING 10 PCS.</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3107,15 +3100,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L21" s="0" t="d">
+      <c r="L21" s="4" t="d">
         <v>2018-08-19T00:00:00</v>
       </c>
-      <c r="M21" s="0" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N21" s="0"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
         <v>101</v>
       </c>
@@ -3135,17 +3128,17 @@
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY &amp; TAR FITTING 10 PCS.</t>
+          <t>F/B DIRTY BY  BADLY SAND DUST.</t>
         </is>
       </c>
       <c r="Y21" s="0" t="inlineStr">
@@ -3166,11 +3159,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>37352</v>
+        <v>37355</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>CBHU8864367</t>
+          <t>TGHU6637668</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3216,17 +3209,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L22" s="0" t="d">
-        <v>2018-08-19T00:00:00</v>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N22" s="0"/>
+      <c r="L22" s="4" t="d">
+        <v>2018-08-20T00:00:00</v>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N22" s="4"/>
       <c r="O22" s="0" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0</v>
@@ -3240,21 +3233,21 @@
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0" t="n">
-        <v>1470102</v>
+        <v>1470215</v>
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W22" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY  BADLY SAND DUST.</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y22" s="0" t="inlineStr">
@@ -3325,15 +3318,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L23" s="0" t="d">
+      <c r="L23" s="4" t="d">
         <v>2018-08-20T00:00:00</v>
       </c>
-      <c r="M23" s="0" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N23" s="0"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="0" t="n">
         <v>100</v>
       </c>
@@ -3363,7 +3356,7 @@
       </c>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>R/SIDE PANEL CORROSION  CUT 06' </t>
         </is>
       </c>
       <c r="Y23" s="0" t="inlineStr">
@@ -3434,15 +3427,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L24" s="0" t="d">
+      <c r="L24" s="4" t="d">
         <v>2018-08-20T00:00:00</v>
       </c>
-      <c r="M24" s="0" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N24" s="0"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="0" t="n">
         <v>100</v>
       </c>
@@ -3472,7 +3465,7 @@
       </c>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>R/SIDE PANEL CORROSION  CUT 06' </t>
+          <t>R/SIDE PANEL PUSSED OUT 36'X24'X02' .</t>
         </is>
       </c>
       <c r="Y24" s="0" t="inlineStr">
@@ -3543,15 +3536,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L25" s="0" t="d">
+      <c r="L25" s="4" t="d">
         <v>2018-08-20T00:00:00</v>
       </c>
-      <c r="M25" s="0" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N25" s="0"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="0" t="n">
         <v>100</v>
       </c>
@@ -3571,17 +3564,17 @@
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W25" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>R/SIDE PANEL PUSSED OUT 36'X24'X02' .</t>
+          <t>FLOOR BOARD FLY WOOD MISSING VARIOUS PLC</t>
         </is>
       </c>
       <c r="Y25" s="0" t="inlineStr">
@@ -3652,15 +3645,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L26" s="0" t="d">
+      <c r="L26" s="4" t="d">
         <v>2018-08-20T00:00:00</v>
       </c>
-      <c r="M26" s="0" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N26" s="0"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="0" t="n">
         <v>100</v>
       </c>
@@ -3690,7 +3683,7 @@
       </c>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD FLY WOOD MISSING VARIOUS PLC</t>
+          <t>F/B DIRTY BY DUST ?&amp; SCRATCHED V.P</t>
         </is>
       </c>
       <c r="Y26" s="0" t="inlineStr">
@@ -3711,11 +3704,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>37355</v>
+        <v>37411</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TGHU6637668</t>
+          <t>CBHU8162611</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3743,35 +3736,35 @@
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>KSL GLADIATOR V KSLGE22</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>54/2018</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N27" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="d">
+        <v>2018-08-27T00:00:00</v>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="0" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
@@ -3785,21 +3778,21 @@
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0" t="n">
-        <v>1470215</v>
+        <v>1471222</v>
       </c>
       <c r="V27" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W27" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY DUST ?&amp; SCRATCHED V.P</t>
+          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION</t>
         </is>
       </c>
       <c r="Y27" s="0" t="inlineStr">
@@ -3820,11 +3813,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>37915</v>
+        <v>37411</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>FCIU9710071</t>
+          <t>CBHU8162611</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -3852,35 +3845,35 @@
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>KAPITAN MASLOV</t>
+          <t>KSL GLADIATOR V KSLGE22</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>2468/2018</t>
+          <t>54/2018</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N28" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="d">
+        <v>2018-08-27T00:00:00</v>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="0" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -3894,21 +3887,21 @@
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0" t="n">
-        <v>1475203</v>
+        <v>1471222</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W28" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST.</t>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
       <c r="Y28" s="0" t="inlineStr">
@@ -3929,11 +3922,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>37916</v>
+        <v>37411</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>UETU5367114</t>
+          <t>CBHU8162611</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -3961,35 +3954,35 @@
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>KAPITAN MASLOV</t>
+          <t>KSL GLADIATOR V KSLGE22</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>2468/2018</t>
+          <t>54/2018</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N29" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="d">
+        <v>2018-08-27T00:00:00</v>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="0" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -4003,7 +3996,7 @@
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0" t="n">
-        <v>1475206</v>
+        <v>1471222</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
@@ -4012,12 +4005,12 @@
       </c>
       <c r="W29" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST</t>
+          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; BLACK STAIN &amp;SCRATCHED</t>
         </is>
       </c>
       <c r="Y29" s="0" t="inlineStr">
@@ -4038,11 +4031,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>37917</v>
+        <v>37788</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>TCLU7945748</t>
+          <t>TEMU7913809</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4088,17 +4081,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L30" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M30" s="0" t="inlineStr">
+      <c r="L30" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N30" s="0"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
@@ -4112,7 +4105,7 @@
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0" t="n">
-        <v>1475211</v>
+        <v>1474536</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
@@ -4126,7 +4119,7 @@
       </c>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST</t>
         </is>
       </c>
       <c r="Y30" s="0" t="inlineStr">
@@ -4147,11 +4140,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>37973</v>
+        <v>37789</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>TCNU5930833</t>
+          <t>TEMU6776830</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4197,17 +4190,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L31" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M31" s="0" t="inlineStr">
+      <c r="L31" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N31" s="0"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="0" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -4221,21 +4214,21 @@
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0" t="n">
-        <v>1475510</v>
+        <v>1474539</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W31" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
+          <t>F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR .</t>
         </is>
       </c>
       <c r="Y31" s="0" t="inlineStr">
@@ -4256,11 +4249,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>37973</v>
+        <v>37790</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>TCNU5930833</t>
+          <t>FSCU9315380</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4306,17 +4299,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L32" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
+      <c r="L32" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N32" s="0"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="0" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>0</v>
@@ -4330,21 +4323,21 @@
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0" t="n">
-        <v>1475510</v>
+        <v>1474541</v>
       </c>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W32" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; TYRE MARK &amp; SCRATCHED</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y32" s="0" t="inlineStr">
@@ -4365,11 +4358,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>38780</v>
+        <v>37790</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>CXRU1229872</t>
+          <t>FSCU9315380</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4377,7 +4370,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -4397,35 +4390,35 @@
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>MARINE BIA</t>
+          <t>KAPITAN MASLOV</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>2018/2535</t>
+          <t>2468/2018</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N33" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>0</v>
@@ -4439,21 +4432,21 @@
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0" t="n">
-        <v>1478337</v>
+        <v>1474541</v>
       </c>
       <c r="V33" s="0" t="inlineStr">
         <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W33" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>POWER CABLE &amp; PLUG OK</t>
+          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
         </is>
       </c>
       <c r="Y33" s="0" t="inlineStr">
@@ -4474,11 +4467,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>38780</v>
+        <v>37915</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>CXRU1229872</t>
+          <t>FCIU9710071</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4486,7 +4479,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -4506,35 +4499,35 @@
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>MARINE BIA</t>
+          <t>KAPITAN MASLOV</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>2018/2535</t>
+          <t>2468/2018</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L34" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M34" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N34" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="0" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -4548,7 +4541,7 @@
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="0" t="n">
-        <v>1478337</v>
+        <v>1475203</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
@@ -4562,7 +4555,7 @@
       </c>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY DUST</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST.</t>
         </is>
       </c>
       <c r="Y34" s="0" t="inlineStr">
@@ -4583,19 +4576,19 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>38829</v>
+        <v>37916</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>BEAU2242166</t>
+          <t>UETU5367114</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -4620,12 +4613,12 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>KAPITAN MASLOV</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>2602/2018</t>
+          <t>2468/2018</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
@@ -4633,17 +4626,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L35" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M35" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="N35" s="0"/>
+      <c r="L35" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="0" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
@@ -4657,30 +4650,54 @@
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0" t="n">
-        <v>1478421</v>
-      </c>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0"/>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+        <v>1475206</v>
+      </c>
+      <c r="V35" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>38830</v>
+        <v>37917</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>CCLU2829116</t>
+          <t>TCLU7945748</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -4705,12 +4722,12 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>KAPITAN MASLOV</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>2602/2018</t>
+          <t>2468/2018</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
@@ -4718,17 +4735,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L36" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M36" s="0" t="inlineStr">
+      <c r="L36" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N36" s="0"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="0" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>0</v>
@@ -4742,21 +4759,21 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0" t="n">
-        <v>1478422</v>
+        <v>1475211</v>
       </c>
       <c r="V36" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W36" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
         </is>
       </c>
       <c r="Y36" s="0" t="inlineStr">
@@ -4777,11 +4794,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>38830</v>
+        <v>37944</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>CCLU2829116</t>
+          <t>CBHU5631989</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4814,12 +4831,12 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>2602/2018</t>
+          <t>2591/2018</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
@@ -4827,17 +4844,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L37" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M37" s="0" t="inlineStr">
+      <c r="L37" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N37" s="0"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="0" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>0</v>
@@ -4851,21 +4868,21 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="0" t="n">
-        <v>1478422</v>
+        <v>1475409</v>
       </c>
       <c r="V37" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W37" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+          <t>INTERNAL PANEL INK DIRTY.</t>
         </is>
       </c>
       <c r="Y37" s="0" t="inlineStr">
@@ -4886,19 +4903,19 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>38881</v>
+        <v>37944</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>CBHU8622888</t>
+          <t>CBHU5631989</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -4923,12 +4940,12 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>OCEAN NHAVA SHEVA</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>2566/2018</t>
+          <t>2591/2018</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
@@ -4936,17 +4953,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L38" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
+      <c r="L38" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N38" s="0"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="0" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>0</v>
@@ -4960,7 +4977,7 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="0" t="n">
-        <v>1478624</v>
+        <v>1475409</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
@@ -4974,7 +4991,7 @@
       </c>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
       <c r="Y38" s="0" t="inlineStr">
@@ -4995,19 +5012,19 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>38881</v>
+        <v>37944</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>CBHU8622888</t>
+          <t>CBHU5631989</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -5032,12 +5049,12 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>OCEAN NHAVA SHEVA</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>2566/2018</t>
+          <t>2591/2018</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -5045,17 +5062,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L39" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M39" s="0" t="inlineStr">
+      <c r="L39" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N39" s="0"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="0" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>0</v>
@@ -5069,7 +5086,7 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="0" t="n">
-        <v>1478624</v>
+        <v>1475409</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
@@ -5078,12 +5095,12 @@
       </c>
       <c r="W39" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY MUD+LENTILS ,SAND ,TYER MARK,STAPLE FIBER  DUST .</t>
+          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y39" s="0" t="inlineStr">
@@ -5104,19 +5121,19 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>38882</v>
+        <v>37945</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>FCIU9702688</t>
+          <t>CCLU3762378</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -5141,12 +5158,12 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>OCEAN NHAVA SHEVA</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>2566/2018</t>
+          <t>2591/2018</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
@@ -5154,17 +5171,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L40" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M40" s="0" t="inlineStr">
+      <c r="L40" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>SOUND</t>
         </is>
       </c>
-      <c r="N40" s="0"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="0" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0</v>
@@ -5178,7 +5195,7 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="0" t="n">
-        <v>1478625</v>
+        <v>1475411</v>
       </c>
       <c r="V40" s="0"/>
       <c r="W40" s="0"/>
@@ -5189,11 +5206,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>40207</v>
+        <v>37973</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>BMOU4409513</t>
+          <t>TCNU5930833</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5216,69 +5233,93 @@
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>WEST SCENT</t>
+          <t>KAPITAN MASLOV</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>750/18</t>
+          <t>2468/2018</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="d">
-        <v>2018-08-26T00:00:00</v>
-      </c>
-      <c r="M41" s="0" t="inlineStr">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N41" s="0"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="0" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="0" t="n">
-        <v>1480665</v>
-      </c>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0"/>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+        <v>1475510</v>
+      </c>
+      <c r="V41" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>40208</v>
+        <v>37973</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>UETU5298970</t>
+          <t>TCNU5930833</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5301,69 +5342,93 @@
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>KAPITAN MASLOV</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2468/2018</t>
         </is>
       </c>
       <c r="K42" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L42" s="0" t="d">
-        <v>2018-08-19T00:00:00</v>
-      </c>
-      <c r="M42" s="0" t="inlineStr">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N42" s="0"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="0" t="n">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R42" s="0"/>
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="0" t="n">
-        <v>1480667</v>
-      </c>
-      <c r="V42" s="0"/>
-      <c r="W42" s="0"/>
-      <c r="X42" s="0"/>
-      <c r="Y42" s="0"/>
-      <c r="Z42" s="0"/>
-      <c r="AA42" s="0"/>
+        <v>1475510</v>
+      </c>
+      <c r="V42" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W42" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="X42" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; TYRE MARK &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Y42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>37411</v>
+        <v>38780</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>CBHU8162611</t>
+          <t>CXRU1229872</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5371,7 +5436,7 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
@@ -5396,12 +5461,12 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>KSL GLADIATOR V KSLGE22</t>
+          <t>MARINE BIA</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>54/2018</t>
+          <t>2018/2535</t>
         </is>
       </c>
       <c r="K43" s="0" t="inlineStr">
@@ -5409,17 +5474,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L43" s="0" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="M43" s="0" t="inlineStr">
+      <c r="L43" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N43" s="0"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="0" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0</v>
@@ -5433,21 +5498,21 @@
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="0" t="n">
-        <v>1471222</v>
+        <v>1478337</v>
       </c>
       <c r="V43" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
         </is>
       </c>
       <c r="W43" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
         </is>
       </c>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION</t>
+          <t>POWER CABLE &amp; PLUG OK</t>
         </is>
       </c>
       <c r="Y43" s="0" t="inlineStr">
@@ -5468,11 +5533,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>37411</v>
+        <v>38780</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>CBHU8162611</t>
+          <t>CXRU1229872</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5480,7 +5545,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -5505,12 +5570,12 @@
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>KSL GLADIATOR V KSLGE22</t>
+          <t>MARINE BIA</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>54/2018</t>
+          <t>2018/2535</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -5518,17 +5583,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L44" s="0" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
+      <c r="L44" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N44" s="0"/>
+      <c r="N44" s="4"/>
       <c r="O44" s="0" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -5542,21 +5607,21 @@
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="0" t="n">
-        <v>1471222</v>
+        <v>1478337</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W44" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+          <t>F/B DIRTY BY DUST</t>
         </is>
       </c>
       <c r="Y44" s="0" t="inlineStr">
@@ -5577,19 +5642,19 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>37411</v>
+        <v>38829</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>CBHU8162611</t>
+          <t>BEAU2242166</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
@@ -5609,35 +5674,35 @@
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>KSL GLADIATOR V KSLGE22</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>54/2018</t>
+          <t>2602/2018</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N45" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="N45" s="4"/>
       <c r="O45" s="0" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>0</v>
@@ -5651,54 +5716,30 @@
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="0" t="n">
-        <v>1471222</v>
-      </c>
-      <c r="V45" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W45" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; BLACK STAIN &amp;SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1478421</v>
+      </c>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
+      <c r="X45" s="0"/>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>37788</v>
+        <v>38830</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>TEMU7913809</t>
+          <t>CCLU2829116</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -5723,12 +5764,12 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>KAPITAN MASLOV</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>2468/2018</t>
+          <t>2602/2018</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -5736,17 +5777,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L46" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M46" s="0" t="inlineStr">
+      <c r="L46" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N46" s="0"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="0" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -5760,21 +5801,21 @@
       <c r="S46" s="0"/>
       <c r="T46" s="0"/>
       <c r="U46" s="0" t="n">
-        <v>1474536</v>
+        <v>1478422</v>
       </c>
       <c r="V46" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W46" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X46" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y46" s="0" t="inlineStr">
@@ -5795,19 +5836,19 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>37789</v>
+        <v>38830</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>TEMU6776830</t>
+          <t>CCLU2829116</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -5832,12 +5873,12 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>KAPITAN MASLOV</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>2468/2018</t>
+          <t>2602/2018</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -5845,17 +5886,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L47" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M47" s="0" t="inlineStr">
+      <c r="L47" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N47" s="0"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="0" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>0</v>
@@ -5869,7 +5910,7 @@
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="0" t="n">
-        <v>1474539</v>
+        <v>1478422</v>
       </c>
       <c r="V47" s="0" t="inlineStr">
         <is>
@@ -5883,7 +5924,7 @@
       </c>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR .</t>
+          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
         </is>
       </c>
       <c r="Y47" s="0" t="inlineStr">
@@ -5904,11 +5945,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>37790</v>
+        <v>38854</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>FSCU9315380</t>
+          <t>TEMU9284032</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -5916,7 +5957,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -5936,35 +5977,35 @@
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>KAPITAN MASLOV</t>
+          <t>TR ARAMIS V.010N</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>2468/2018</t>
+          <t>2018/2717</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L48" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M48" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N48" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="0" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
@@ -5978,21 +6019,21 @@
       <c r="S48" s="0"/>
       <c r="T48" s="0"/>
       <c r="U48" s="0" t="n">
-        <v>1474541</v>
+        <v>1478516</v>
       </c>
       <c r="V48" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
         </is>
       </c>
       <c r="W48" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
         </is>
       </c>
       <c r="X48" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>POWER CABLE &amp; PLUG OK .</t>
         </is>
       </c>
       <c r="Y48" s="0" t="inlineStr">
@@ -6013,11 +6054,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>37790</v>
+        <v>38854</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>FSCU9315380</t>
+          <t>TEMU9284032</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6025,7 +6066,7 @@
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -6045,35 +6086,35 @@
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>KAPITAN MASLOV</t>
+          <t>TR ARAMIS V.010N</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>2468/2018</t>
+          <t>2018/2717</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M49" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N49" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N49" s="4"/>
       <c r="O49" s="0" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
@@ -6087,7 +6128,7 @@
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="0" t="n">
-        <v>1474541</v>
+        <v>1478516</v>
       </c>
       <c r="V49" s="0" t="inlineStr">
         <is>
@@ -6101,7 +6142,7 @@
       </c>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
+          <t>RF FLOOR BOARD DIRTY BY GARLICK DUST &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y49" s="0" t="inlineStr">
@@ -6122,19 +6163,19 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>37944</v>
+        <v>38881</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>CBHU5631989</t>
+          <t>CBHU8622888</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -6159,12 +6200,12 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t>OCEAN NHAVA SHEVA</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>2591/2018</t>
+          <t>2566/2018</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
@@ -6172,17 +6213,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L50" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M50" s="0" t="inlineStr">
+      <c r="L50" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N50" s="0"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="0" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>0</v>
@@ -6196,7 +6237,7 @@
       <c r="S50" s="0"/>
       <c r="T50" s="0"/>
       <c r="U50" s="0" t="n">
-        <v>1475409</v>
+        <v>1478624</v>
       </c>
       <c r="V50" s="0" t="inlineStr">
         <is>
@@ -6210,7 +6251,7 @@
       </c>
       <c r="X50" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL INK DIRTY.</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y50" s="0" t="inlineStr">
@@ -6231,19 +6272,19 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>37944</v>
+        <v>38881</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>CBHU5631989</t>
+          <t>CBHU8622888</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -6268,12 +6309,12 @@
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t>OCEAN NHAVA SHEVA</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>2591/2018</t>
+          <t>2566/2018</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -6281,17 +6322,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L51" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M51" s="0" t="inlineStr">
+      <c r="L51" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N51" s="0"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="0" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>0</v>
@@ -6305,21 +6346,21 @@
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="0" t="n">
-        <v>1475409</v>
+        <v>1478624</v>
       </c>
       <c r="V51" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W51" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X51" s="0" t="inlineStr">
         <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+          <t>F/B DIRTY BY MUD+LENTILS ,SAND ,TYER MARK,STAPLE FIBER  DUST .</t>
         </is>
       </c>
       <c r="Y51" s="0" t="inlineStr">
@@ -6340,19 +6381,19 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>37944</v>
+        <v>38882</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>CBHU5631989</t>
+          <t>FCIU9702688</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -6377,12 +6418,12 @@
       </c>
       <c r="I52" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t>OCEAN NHAVA SHEVA</t>
         </is>
       </c>
       <c r="J52" s="0" t="inlineStr">
         <is>
-          <t>2591/2018</t>
+          <t>2566/2018</t>
         </is>
       </c>
       <c r="K52" s="0" t="inlineStr">
@@ -6390,17 +6431,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L52" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M52" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N52" s="0"/>
+      <c r="L52" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="N52" s="4"/>
       <c r="O52" s="0" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>0</v>
@@ -6414,54 +6455,30 @@
       <c r="S52" s="0"/>
       <c r="T52" s="0"/>
       <c r="U52" s="0" t="n">
-        <v>1475409</v>
-      </c>
-      <c r="V52" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W52" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="X52" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1478625</v>
+      </c>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>37945</v>
+        <v>40035</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>CCLU3762378</t>
+          <t>CXRU1485658</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -6486,44 +6503,44 @@
       </c>
       <c r="I53" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t/>
         </is>
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>2591/2018</t>
+          <t/>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L53" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M53" s="0" t="inlineStr">
+          <t>SHIPPER PREMISES</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
         <is>
           <t>SOUND</t>
         </is>
       </c>
-      <c r="N53" s="0"/>
+      <c r="N53" s="4"/>
       <c r="O53" s="0" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R53" s="0"/>
       <c r="S53" s="0"/>
       <c r="T53" s="0"/>
       <c r="U53" s="0" t="n">
-        <v>1475411</v>
+        <v>1478938</v>
       </c>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
@@ -6534,11 +6551,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>38854</v>
+        <v>40112</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>TEMU9284032</t>
+          <t>CBHU8120494</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6546,7 +6563,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -6561,7 +6578,7 @@
       </c>
       <c r="G54" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H54" s="0" t="inlineStr">
@@ -6571,58 +6588,58 @@
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>TR ARAMIS V.010N</t>
+          <t>OCEAN NHAVA SHEVA</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>2018/2717</t>
+          <t>2566/2018</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L54" s="0" t="d">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M54" s="0" t="inlineStr">
+      <c r="M54" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N54" s="0"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="0" t="n">
         <v>77</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R54" s="0"/>
       <c r="S54" s="0"/>
       <c r="T54" s="0"/>
       <c r="U54" s="0" t="n">
-        <v>1478516</v>
+        <v>1480180</v>
       </c>
       <c r="V54" s="0" t="inlineStr">
         <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W54" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X54" s="0" t="inlineStr">
         <is>
-          <t>POWER CABLE &amp; PLUG OK .</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y54" s="0" t="inlineStr">
@@ -6643,11 +6660,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>38854</v>
+        <v>40112</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>TEMU9284032</t>
+          <t>CBHU8120494</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -6655,7 +6672,7 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
@@ -6670,7 +6687,7 @@
       </c>
       <c r="G55" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H55" s="0" t="inlineStr">
@@ -6680,44 +6697,44 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>TR ARAMIS V.010N</t>
+          <t>OCEAN NHAVA SHEVA</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>2018/2717</t>
+          <t>2566/2018</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L55" s="0" t="d">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M55" s="0" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N55" s="0"/>
+      <c r="N55" s="4"/>
       <c r="O55" s="0" t="n">
         <v>77</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R55" s="0"/>
       <c r="S55" s="0"/>
       <c r="T55" s="0"/>
       <c r="U55" s="0" t="n">
-        <v>1478516</v>
+        <v>1480180</v>
       </c>
       <c r="V55" s="0" t="inlineStr">
         <is>
@@ -6731,7 +6748,7 @@
       </c>
       <c r="X55" s="0" t="inlineStr">
         <is>
-          <t>RF FLOOR BOARD DIRTY BY GARLICK DUST &amp; ODOUR</t>
+          <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR </t>
         </is>
       </c>
       <c r="Y55" s="0" t="inlineStr">
@@ -6752,11 +6769,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>40035</v>
+        <v>40129</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>CXRU1485658</t>
+          <t>TEMU6154159</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -6764,7 +6781,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -6779,40 +6796,40 @@
       </c>
       <c r="G56" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>KOTA WARIS</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2476</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
         <is>
-          <t>SHIPPER PREMISES</t>
-        </is>
-      </c>
-      <c r="L56" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M56" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="N56" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N56" s="4"/>
       <c r="O56" s="0" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>1</v>
@@ -6826,22 +6843,46 @@
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="0" t="n">
-        <v>1478938</v>
-      </c>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0"/>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
+        <v>1480299</v>
+      </c>
+      <c r="V56" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W56" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X56" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL NO-01 CRACKED 02'.</t>
+        </is>
+      </c>
+      <c r="Y56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>40112</v>
+        <v>40129</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>CBHU8120494</t>
+          <t>TEMU6154159</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -6874,30 +6915,30 @@
       </c>
       <c r="I57" s="0" t="inlineStr">
         <is>
-          <t>OCEAN NHAVA SHEVA</t>
+          <t>KOTA WARIS</t>
         </is>
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>2566/2018</t>
+          <t>2018/2476</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L57" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M57" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N57" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N57" s="4"/>
       <c r="O57" s="0" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>1</v>
@@ -6911,7 +6952,7 @@
       <c r="S57" s="0"/>
       <c r="T57" s="0"/>
       <c r="U57" s="0" t="n">
-        <v>1480180</v>
+        <v>1480299</v>
       </c>
       <c r="V57" s="0" t="inlineStr">
         <is>
@@ -6946,11 +6987,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>40112</v>
+        <v>40130</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>CBHU8120494</t>
+          <t>CBHU8490272</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -6996,15 +7037,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L58" s="0" t="d">
+      <c r="L58" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M58" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N58" s="0"/>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N58" s="4"/>
       <c r="O58" s="0" t="n">
         <v>77</v>
       </c>
@@ -7020,46 +7061,22 @@
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="0" t="n">
-        <v>1480180</v>
-      </c>
-      <c r="V58" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W58" s="0" t="inlineStr">
-        <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR </t>
-        </is>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1480300</v>
+      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>40129</v>
+        <v>40132</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>TEMU6154159</t>
+          <t>TLLU4408928</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7092,30 +7109,30 @@
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>KOTA WARIS</t>
+          <t>MARINE TARABA</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>2018/2476</t>
+          <t>2018/2585</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L59" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M59" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N59" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="d">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N59" s="4"/>
       <c r="O59" s="0" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>1</v>
@@ -7129,46 +7146,22 @@
       <c r="S59" s="0"/>
       <c r="T59" s="0"/>
       <c r="U59" s="0" t="n">
-        <v>1480299</v>
-      </c>
-      <c r="V59" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W59" s="0" t="inlineStr">
-        <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="X59" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL NO-01 CRACKED 02'.</t>
-        </is>
-      </c>
-      <c r="Y59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1480306</v>
+      </c>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
+      <c r="X59" s="0"/>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>40129</v>
+        <v>40133</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>TEMU6154159</t>
+          <t>TCNU1321470</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7201,30 +7194,30 @@
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>KOTA WARIS</t>
+          <t>OCEAN NHAVA SHEVA</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>2018/2476</t>
+          <t>2566/2018</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L60" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M60" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N60" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N60" s="4"/>
       <c r="O60" s="0" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>1</v>
@@ -7238,46 +7231,22 @@
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="0" t="n">
-        <v>1480299</v>
-      </c>
-      <c r="V60" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
-      <c r="W60" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="X60" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1480307</v>
+      </c>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
+      <c r="X60" s="0"/>
+      <c r="Y60" s="0"/>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>40130</v>
+        <v>40207</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>CBHU8490272</t>
+          <t>BMOU4409513</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7310,30 +7279,30 @@
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>OCEAN NHAVA SHEVA</t>
+          <t>WEST SCENT</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>2566/2018</t>
+          <t>750/18</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L61" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M61" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="d">
+        <v>2018-08-26T00:00:00</v>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N61" s="0"/>
+      <c r="N61" s="4"/>
       <c r="O61" s="0" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>1</v>
@@ -7347,7 +7316,7 @@
       <c r="S61" s="0"/>
       <c r="T61" s="0"/>
       <c r="U61" s="0" t="n">
-        <v>1480300</v>
+        <v>1480665</v>
       </c>
       <c r="V61" s="0"/>
       <c r="W61" s="0"/>
@@ -7358,11 +7327,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>40132</v>
+        <v>40208</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>TLLU4408928</t>
+          <t>UETU5298970</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7395,12 +7364,12 @@
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>MARINE TARABA</t>
+          <t/>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>2018/2585</t>
+          <t/>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
@@ -7408,17 +7377,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L62" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="M62" s="0" t="inlineStr">
+      <c r="L62" s="4" t="d">
+        <v>2018-08-19T00:00:00</v>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N62" s="0"/>
+      <c r="N62" s="4"/>
       <c r="O62" s="0" t="n">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P62" s="0" t="n">
         <v>1</v>
@@ -7432,7 +7401,7 @@
       <c r="S62" s="0"/>
       <c r="T62" s="0"/>
       <c r="U62" s="0" t="n">
-        <v>1480306</v>
+        <v>1480667</v>
       </c>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
@@ -7440,91 +7409,6 @@
       <c r="Y62" s="0"/>
       <c r="Z62" s="0"/>
       <c r="AA62" s="0"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="n">
-        <v>40133</v>
-      </c>
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>TCNU1321470</t>
-        </is>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D63" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E63" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="G63" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="H63" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I63" s="0" t="inlineStr">
-        <is>
-          <t>OCEAN NHAVA SHEVA</t>
-        </is>
-      </c>
-      <c r="J63" s="0" t="inlineStr">
-        <is>
-          <t>2566/2018</t>
-        </is>
-      </c>
-      <c r="K63" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L63" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M63" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N63" s="0"/>
-      <c r="O63" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="P63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
-      <c r="R63" s="0"/>
-      <c r="S63" s="0"/>
-      <c r="T63" s="0"/>
-      <c r="U63" s="0" t="n">
-        <v>1480307</v>
-      </c>
-      <c r="V63" s="0"/>
-      <c r="W63" s="0"/>
-      <c r="X63" s="0"/>
-      <c r="Y63" s="0"/>
-      <c r="Z63" s="0"/>
-      <c r="AA63" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -7547,23 +7431,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -7573,78 +7457,117 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -7660,11 +7583,11 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>20-RF</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -7679,13 +7602,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7701,32 +7624,32 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>20-RF</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -7742,17 +7665,17 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>40-HC</t>
+          <t>40-RF</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>2</v>
@@ -7761,53 +7684,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>40-RF</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" s="0" t="n">
         <v>6</v>
       </c>
     </row>
